--- a/Lab 4 data set.xlsx
+++ b/Lab 4 data set.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time (s)</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Bz (µT)</t>
-  </si>
-  <si>
-    <t>Absolute</t>
   </si>
 </sst>
 </file>
@@ -59,14 +56,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -296,9 +292,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -313,10 +306,6 @@
       <c r="D2" s="1">
         <v>-30.7160358428955</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E366" si="1">sqrt(B2^2 + C2^2 + D2^2)</f>
-        <v>71.18140855</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -331,10 +320,6 @@
       <c r="D3" s="1">
         <v>-30.6138572692871</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14610719</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -349,10 +334,6 @@
       <c r="D4" s="1">
         <v>-30.5970230102539</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13668417</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -367,10 +348,6 @@
       <c r="D5" s="1">
         <v>-30.6312294006347</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12244977</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -385,10 +362,6 @@
       <c r="D6" s="1">
         <v>-30.654836654663</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10827198</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -403,10 +376,6 @@
       <c r="D7" s="1">
         <v>-30.6717720031738</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10978928</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -421,10 +390,6 @@
       <c r="D8" s="1">
         <v>-30.7122135162353</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10796542</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -439,10 +404,6 @@
       <c r="D9" s="1">
         <v>-30.6871948242187</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07633079</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -457,10 +418,6 @@
       <c r="D10" s="1">
         <v>-30.5795516967773</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07180293</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -475,10 +432,6 @@
       <c r="D11" s="1">
         <v>-30.7344799041748</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15936885</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -493,10 +446,6 @@
       <c r="D12" s="1">
         <v>-30.7937335968017</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20859407</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -511,10 +460,6 @@
       <c r="D13" s="1">
         <v>-30.7001056671142</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12524719</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -529,10 +474,6 @@
       <c r="D14" s="1">
         <v>-30.671100616455</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11017018</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -547,10 +488,6 @@
       <c r="D15" s="1">
         <v>-30.7175769805908</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17907167</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -565,10 +502,6 @@
       <c r="D16" s="1">
         <v>-30.6741180419921</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15172694</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -583,10 +516,6 @@
       <c r="D17" s="1">
         <v>-30.7037963867187</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15608816</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -601,10 +530,6 @@
       <c r="D18" s="1">
         <v>-30.7037963867187</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15608816</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -619,10 +544,6 @@
       <c r="D19" s="1">
         <v>-30.8054046630859</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>71.2039709</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -637,10 +558,6 @@
       <c r="D20" s="1">
         <v>-30.730655670166</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19069125</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -655,10 +572,6 @@
       <c r="D21" s="1">
         <v>-30.6915550231933</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1812793</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -673,10 +586,6 @@
       <c r="D22" s="1">
         <v>-30.6858215332031</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16717686</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -691,10 +600,6 @@
       <c r="D23" s="1">
         <v>-30.7048683166503</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17911632</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -709,10 +614,6 @@
       <c r="D24" s="1">
         <v>-30.7527542114257</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23147923</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -727,10 +628,6 @@
       <c r="D25" s="1">
         <v>-30.7435989379882</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22792927</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
@@ -745,10 +642,6 @@
       <c r="D26" s="1">
         <v>-30.668249130249</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19875265</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
@@ -763,10 +656,6 @@
       <c r="D27" s="1">
         <v>-30.6776733398437</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22112331</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
@@ -781,10 +670,6 @@
       <c r="D28" s="1">
         <v>-30.7249221801757</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13066412</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
@@ -799,10 +684,6 @@
       <c r="D29" s="1">
         <v>-30.7099323272705</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09014483</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
@@ -817,10 +698,6 @@
       <c r="D30" s="1">
         <v>-30.6977252960205</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14201214</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
@@ -835,10 +712,6 @@
       <c r="D31" s="1">
         <v>-30.68501663208</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17016544</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
@@ -853,10 +726,6 @@
       <c r="D32" s="1">
         <v>-30.6516170501709</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14156411</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
@@ -871,10 +740,6 @@
       <c r="D33" s="1">
         <v>-30.6652641296386</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20018993</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -889,10 +754,6 @@
       <c r="D34" s="1">
         <v>-30.8017139434814</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>71.28018291</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
@@ -907,10 +768,6 @@
       <c r="D35" s="1">
         <v>-30.8017139434814</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="1"/>
-        <v>71.28018291</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
@@ -925,10 +782,6 @@
       <c r="D36" s="1">
         <v>-30.7061424255371</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>71.21366867</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
@@ -943,10 +796,6 @@
       <c r="D37" s="1">
         <v>-30.6631526947021</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19385222</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
@@ -961,10 +810,6 @@
       <c r="D38" s="1">
         <v>-30.654836654663</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19330211</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
@@ -979,10 +824,6 @@
       <c r="D39" s="1">
         <v>-30.6650981903076</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19802998</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
@@ -997,10 +838,6 @@
       <c r="D40" s="1">
         <v>-30.6391086578369</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19552507</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
@@ -1015,10 +852,6 @@
       <c r="D41" s="1">
         <v>-30.5424976348876</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16929126</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
@@ -1033,10 +866,6 @@
       <c r="D42" s="1">
         <v>-30.5408878326416</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14638335</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
@@ -1051,10 +880,6 @@
       <c r="D43" s="1">
         <v>-30.6700611114501</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1483098</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
@@ -1069,10 +894,6 @@
       <c r="D44" s="1">
         <v>-30.6893081665039</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23900301</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
@@ -1087,10 +908,6 @@
       <c r="D45" s="1">
         <v>-30.5467548370361</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11746571</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
@@ -1105,10 +922,6 @@
       <c r="D46" s="1">
         <v>-30.4834766387939</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" si="1"/>
-        <v>71.05551367</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -1123,10 +936,6 @@
       <c r="D47" s="1">
         <v>-30.5447101593017</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09784131</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
@@ -1141,10 +950,6 @@
       <c r="D48" s="1">
         <v>-30.6344814300537</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15824052</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
@@ -1159,10 +964,6 @@
       <c r="D49" s="1">
         <v>-30.66184425354</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16783916</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
@@ -1177,10 +978,6 @@
       <c r="D50" s="1">
         <v>-30.6403160095214</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13366705</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
@@ -1195,10 +992,6 @@
       <c r="D51" s="1">
         <v>-30.6187877655029</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14354818</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
@@ -1213,10 +1006,6 @@
       <c r="D52" s="1">
         <v>-30.691120147705</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14536791</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
@@ -1231,10 +1020,6 @@
       <c r="D53" s="1">
         <v>-30.5694923400878</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" si="1"/>
-        <v>71.0801598</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
@@ -1249,10 +1034,6 @@
       <c r="D54" s="1">
         <v>-30.6323680877685</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11079464</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
@@ -1267,10 +1048,6 @@
       <c r="D55" s="1">
         <v>-30.6137580871582</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10172475</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
@@ -1285,10 +1062,6 @@
       <c r="D56" s="1">
         <v>-30.5971565246582</v>
       </c>
-      <c r="E56" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09520082</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -1303,10 +1076,6 @@
       <c r="D57" s="1">
         <v>-30.7191200256347</v>
       </c>
-      <c r="E57" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16076532</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
@@ -1321,10 +1090,6 @@
       <c r="D58" s="1">
         <v>-30.6773700714111</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15026457</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
@@ -1339,10 +1104,6 @@
       <c r="D59" s="1">
         <v>-30.5817985534667</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10153807</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
@@ -1357,10 +1118,6 @@
       <c r="D60" s="1">
         <v>-30.6248569488525</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10831659</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
@@ -1375,10 +1132,6 @@
       <c r="D61" s="1">
         <v>-30.6866931915283</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16409284</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
@@ -1393,10 +1146,6 @@
       <c r="D62" s="1">
         <v>-30.6800537109375</v>
       </c>
-      <c r="E62" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17239395</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
@@ -1411,10 +1160,6 @@
       <c r="D63" s="1">
         <v>-30.5640602111816</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16864624</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
@@ -1429,10 +1174,6 @@
       <c r="D64" s="1">
         <v>-30.5357570648193</v>
       </c>
-      <c r="E64" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13730144</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
@@ -1447,10 +1188,6 @@
       <c r="D65" s="1">
         <v>-30.6233806610107</v>
       </c>
-      <c r="E65" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1178207</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
@@ -1465,10 +1202,6 @@
       <c r="D66" s="1">
         <v>-30.6058769226074</v>
       </c>
-      <c r="E66" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1872096</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
@@ -1483,10 +1216,6 @@
       <c r="D67" s="1">
         <v>-30.6123161315917</v>
       </c>
-      <c r="E67" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18764179</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
@@ -1501,10 +1230,6 @@
       <c r="D68" s="1">
         <v>-30.7414875030517</v>
       </c>
-      <c r="E68" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19647705</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
@@ -1519,10 +1244,6 @@
       <c r="D69" s="1">
         <v>-30.6545009613037</v>
       </c>
-      <c r="E69" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15403915</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
@@ -1537,10 +1258,6 @@
       <c r="D70" s="1">
         <v>-30.6303558349609</v>
       </c>
-      <c r="E70" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16166518</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
@@ -1555,10 +1272,6 @@
       <c r="D71" s="1">
         <v>-30.5753593444824</v>
       </c>
-      <c r="E71" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14229302</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
@@ -1573,10 +1286,6 @@
       <c r="D72" s="1">
         <v>-30.5270366668701</v>
       </c>
-      <c r="E72" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11448961</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
@@ -1591,10 +1300,6 @@
       <c r="D73" s="1">
         <v>-30.5712013244628</v>
       </c>
-      <c r="E73" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12927124</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
@@ -1609,10 +1314,6 @@
       <c r="D74" s="1">
         <v>-30.6646270751953</v>
       </c>
-      <c r="E74" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14763277</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
@@ -1627,10 +1328,6 @@
       <c r="D75" s="1">
         <v>-30.6107387542724</v>
       </c>
-      <c r="E75" s="2">
-        <f t="shared" si="1"/>
-        <v>71.03355896</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
@@ -1645,10 +1342,6 @@
       <c r="D76" s="1">
         <v>-30.6645603179931</v>
       </c>
-      <c r="E76" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07290644</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
@@ -1663,10 +1356,6 @@
       <c r="D77" s="1">
         <v>-30.5952453613281</v>
       </c>
-      <c r="E77" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11063049</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
@@ -1681,10 +1370,6 @@
       <c r="D78" s="1">
         <v>-30.5638256072998</v>
       </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14839428</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
@@ -1699,10 +1384,6 @@
       <c r="D79" s="1">
         <v>-30.5569171905517</v>
       </c>
-      <c r="E79" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16052313</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
@@ -1717,10 +1398,6 @@
       <c r="D80" s="1">
         <v>-30.5685863494873</v>
       </c>
-      <c r="E80" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08785589</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
@@ -1735,10 +1412,6 @@
       <c r="D81" s="1">
         <v>-30.5770359039306</v>
       </c>
-      <c r="E81" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06560167</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
@@ -1753,10 +1426,6 @@
       <c r="D82" s="1">
         <v>-30.5806922912597</v>
       </c>
-      <c r="E82" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15923597</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
@@ -1771,10 +1440,6 @@
       <c r="D83" s="1">
         <v>-30.6096668243408</v>
       </c>
-      <c r="E83" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12285079</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
@@ -1789,10 +1454,6 @@
       <c r="D84" s="1">
         <v>-30.5450801849365</v>
       </c>
-      <c r="E84" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1000571</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
@@ -1807,10 +1468,6 @@
       <c r="D85" s="1">
         <v>-30.6088619232177</v>
       </c>
-      <c r="E85" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07092541</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
@@ -1825,10 +1482,6 @@
       <c r="D86" s="1">
         <v>-30.5904502868652</v>
       </c>
-      <c r="E86" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06851912</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
@@ -1843,10 +1496,6 @@
       <c r="D87" s="1">
         <v>-30.5968894958496</v>
       </c>
-      <c r="E87" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07630802</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
@@ -1861,10 +1510,6 @@
       <c r="D88" s="1">
         <v>-30.5870647430419</v>
       </c>
-      <c r="E88" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07532405</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
@@ -1879,10 +1524,6 @@
       <c r="D89" s="1">
         <v>-30.5739517211914</v>
       </c>
-      <c r="E89" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06276757</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
@@ -1897,10 +1538,6 @@
       <c r="D90" s="1">
         <v>-30.5946750640869</v>
       </c>
-      <c r="E90" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08146244</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
@@ -1915,10 +1552,6 @@
       <c r="D91" s="1">
         <v>-30.6229782104492</v>
       </c>
-      <c r="E91" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16332256</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
@@ -1933,10 +1566,6 @@
       <c r="D92" s="1">
         <v>-30.5802898406982</v>
       </c>
-      <c r="E92" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15988045</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
@@ -1951,10 +1580,6 @@
       <c r="D93" s="1">
         <v>-30.5479984283447</v>
       </c>
-      <c r="E93" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08413296</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
@@ -1969,10 +1594,6 @@
       <c r="D94" s="1">
         <v>-30.5543346405029</v>
       </c>
-      <c r="E94" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06993173</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
@@ -1987,10 +1608,6 @@
       <c r="D95" s="1">
         <v>-30.5650997161865</v>
       </c>
-      <c r="E95" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09586999</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
@@ -2005,10 +1622,6 @@
       <c r="D96" s="1">
         <v>-30.6831722259521</v>
       </c>
-      <c r="E96" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1534089</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
@@ -2023,10 +1636,6 @@
       <c r="D97" s="1">
         <v>-30.7667713165283</v>
       </c>
-      <c r="E97" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18480122</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
@@ -2041,10 +1650,6 @@
       <c r="D98" s="1">
         <v>-30.715196609497</v>
       </c>
-      <c r="E98" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1600148</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
@@ -2059,10 +1664,6 @@
       <c r="D99" s="1">
         <v>-30.6303558349609</v>
       </c>
-      <c r="E99" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11880064</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
@@ -2077,10 +1678,6 @@
       <c r="D100" s="1">
         <v>-30.6359901428222</v>
       </c>
-      <c r="E100" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12059345</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
@@ -2095,10 +1692,6 @@
       <c r="D101" s="1">
         <v>-30.7113418579101</v>
       </c>
-      <c r="E101" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14463285</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
@@ -2113,10 +1706,6 @@
       <c r="D102" s="1">
         <v>-30.6251926422119</v>
       </c>
-      <c r="E102" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08820157</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
@@ -2131,10 +1720,6 @@
       <c r="D103" s="1">
         <v>-30.6403503417968</v>
       </c>
-      <c r="E103" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11221507</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
@@ -2149,10 +1734,6 @@
       <c r="D104" s="1">
         <v>-30.7048358917236</v>
       </c>
-      <c r="E104" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11456544</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
@@ -2167,10 +1748,6 @@
       <c r="D105" s="1">
         <v>-30.740514755249</v>
       </c>
-      <c r="E105" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10538422</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
@@ -2185,10 +1762,6 @@
       <c r="D106" s="1">
         <v>-30.6944065093994</v>
       </c>
-      <c r="E106" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10432453</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
@@ -2203,10 +1776,6 @@
       <c r="D107" s="1">
         <v>-30.6085929870605</v>
       </c>
-      <c r="E107" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09936691</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
@@ -2221,10 +1790,6 @@
       <c r="D108" s="1">
         <v>-30.6143932342529</v>
       </c>
-      <c r="E108" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08850811</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
@@ -2239,10 +1804,6 @@
       <c r="D109" s="1">
         <v>-30.5820999145507</v>
       </c>
-      <c r="E109" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08713457</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
@@ -2257,10 +1818,6 @@
       <c r="D110" s="1">
         <v>-30.5813961029052</v>
       </c>
-      <c r="E110" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08710423</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
@@ -2275,10 +1832,6 @@
       <c r="D111" s="1">
         <v>-30.5813961029052</v>
       </c>
-      <c r="E111" s="2">
-        <f t="shared" si="1"/>
-        <v>71.04130861</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
@@ -2293,10 +1846,6 @@
       <c r="D112" s="1">
         <v>-30.6723403930664</v>
       </c>
-      <c r="E112" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15990421</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
@@ -2311,10 +1860,6 @@
       <c r="D113" s="1">
         <v>-30.7282752990722</v>
       </c>
-      <c r="E113" s="2">
-        <f t="shared" si="1"/>
-        <v>71.2428323</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
@@ -2329,10 +1874,6 @@
       <c r="D114" s="1">
         <v>-30.714391708374</v>
       </c>
-      <c r="E114" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22784752</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
@@ -2347,10 +1888,6 @@
       <c r="D115" s="1">
         <v>-30.7010116577148</v>
       </c>
-      <c r="E115" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19846145</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
@@ -2365,10 +1902,6 @@
       <c r="D116" s="1">
         <v>-30.7282752990722</v>
       </c>
-      <c r="E116" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18481697</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
@@ -2383,10 +1916,6 @@
       <c r="D117" s="1">
         <v>-30.7282752990722</v>
       </c>
-      <c r="E117" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18403475</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
@@ -2401,10 +1930,6 @@
       <c r="D118" s="1">
         <v>-30.7282752990722</v>
       </c>
-      <c r="E118" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1421958</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
@@ -2419,10 +1944,6 @@
       <c r="D119" s="1">
         <v>-30.6998043060302</v>
       </c>
-      <c r="E119" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17221163</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
@@ -2437,10 +1958,6 @@
       <c r="D120" s="1">
         <v>-30.7075843811035</v>
       </c>
-      <c r="E120" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23530195</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
@@ -2455,10 +1972,6 @@
       <c r="D121" s="1">
         <v>-30.7160358428955</v>
       </c>
-      <c r="E121" s="2">
-        <f t="shared" si="1"/>
-        <v>71.26323083</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
@@ -2473,10 +1986,6 @@
       <c r="D122" s="1">
         <v>-30.6502094268798</v>
       </c>
-      <c r="E122" s="2">
-        <f t="shared" si="1"/>
-        <v>71.21639326</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
@@ -2491,10 +2000,6 @@
       <c r="D123" s="1">
         <v>-30.5569171905517</v>
       </c>
-      <c r="E123" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15008563</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
@@ -2509,10 +2014,6 @@
       <c r="D124" s="1">
         <v>-30.5801563262939</v>
       </c>
-      <c r="E124" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15383441</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
@@ -2527,10 +2028,6 @@
       <c r="D125" s="1">
         <v>-30.6896438598632</v>
       </c>
-      <c r="E125" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16901962</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
@@ -2545,10 +2042,6 @@
       <c r="D126" s="1">
         <v>-30.6573524475097</v>
       </c>
-      <c r="E126" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11980664</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
@@ -2563,10 +2056,6 @@
       <c r="D127" s="1">
         <v>-30.6449089050292</v>
       </c>
-      <c r="E127" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15269052</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
@@ -2581,10 +2070,6 @@
       <c r="D128" s="1">
         <v>-30.5496406555175</v>
       </c>
-      <c r="E128" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11519868</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
@@ -2599,10 +2084,6 @@
       <c r="D129" s="1">
         <v>-30.507957458496</v>
       </c>
-      <c r="E129" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09461837</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
@@ -2617,10 +2098,6 @@
       <c r="D130" s="1">
         <v>-30.5794525146484</v>
       </c>
-      <c r="E130" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12832622</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -2635,10 +2112,6 @@
       <c r="D131" s="1">
         <v>-30.6952438354492</v>
       </c>
-      <c r="E131" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17908259</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
@@ -2653,10 +2126,6 @@
       <c r="D132" s="1">
         <v>-30.7400112152099</v>
       </c>
-      <c r="E132" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18403057</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
@@ -2671,10 +2140,6 @@
       <c r="D133" s="1">
         <v>-30.6937007904052</v>
       </c>
-      <c r="E133" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13815605</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
@@ -2689,10 +2154,6 @@
       <c r="D134" s="1">
         <v>-30.7152309417724</v>
       </c>
-      <c r="E134" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22211058</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
@@ -2707,10 +2168,6 @@
       <c r="D135" s="1">
         <v>-30.7160358428955</v>
       </c>
-      <c r="E135" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13088319</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
@@ -2725,10 +2182,6 @@
       <c r="D136" s="1">
         <v>-30.6449432373046</v>
       </c>
-      <c r="E136" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12251811</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
@@ -2743,10 +2196,6 @@
       <c r="D137" s="1">
         <v>-30.6551704406738</v>
       </c>
-      <c r="E137" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11993475</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
@@ -2761,10 +2210,6 @@
       <c r="D138" s="1">
         <v>-30.6793155670166</v>
       </c>
-      <c r="E138" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11610842</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -2779,10 +2224,6 @@
       <c r="D139" s="1">
         <v>-30.6971549987792</v>
       </c>
-      <c r="E139" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13627147</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
@@ -2797,10 +2238,6 @@
       <c r="D140" s="1">
         <v>-30.6864929199218</v>
       </c>
-      <c r="E140" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13575869</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -2815,10 +2252,6 @@
       <c r="D141" s="1">
         <v>-30.5780429840087</v>
       </c>
-      <c r="E141" s="2">
-        <f t="shared" si="1"/>
-        <v>71.03625889</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
@@ -2833,10 +2266,6 @@
       <c r="D142" s="1">
         <v>-30.7278060913085</v>
       </c>
-      <c r="E142" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11518182</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
@@ -2851,10 +2280,6 @@
       <c r="D143" s="1">
         <v>-30.5771045684814</v>
       </c>
-      <c r="E143" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06934059</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
@@ -2869,10 +2294,6 @@
       <c r="D144" s="1">
         <v>-30.5569171905517</v>
       </c>
-      <c r="E144" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06323526</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
@@ -2887,10 +2308,6 @@
       <c r="D145" s="1">
         <v>-30.5255298614501</v>
       </c>
-      <c r="E145" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09254707</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
@@ -2905,10 +2322,6 @@
       <c r="D146" s="1">
         <v>-30.629014968872</v>
       </c>
-      <c r="E146" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15851851</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
@@ -2923,10 +2336,6 @@
       <c r="D147" s="1">
         <v>-30.6817626953125</v>
       </c>
-      <c r="E147" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15647658</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
@@ -2941,10 +2350,6 @@
       <c r="D148" s="1">
         <v>-30.6175785064697</v>
       </c>
-      <c r="E148" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1044567</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
@@ -2959,10 +2364,6 @@
       <c r="D149" s="1">
         <v>-30.6793155670166</v>
       </c>
-      <c r="E149" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15514234</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
@@ -2977,10 +2378,6 @@
       <c r="D150" s="1">
         <v>-30.6821327209472</v>
       </c>
-      <c r="E150" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15814147</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
@@ -2995,10 +2392,6 @@
       <c r="D151" s="1">
         <v>-30.7467174530029</v>
       </c>
-      <c r="E151" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22692786</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
@@ -3013,10 +2406,6 @@
       <c r="D152" s="1">
         <v>-30.6844463348388</v>
       </c>
-      <c r="E152" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20089882</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
@@ -3031,10 +2420,6 @@
       <c r="D153" s="1">
         <v>-30.6090946197509</v>
       </c>
-      <c r="E153" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1843879</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
@@ -3049,10 +2434,6 @@
       <c r="D154" s="1">
         <v>-30.6835079193115</v>
       </c>
-      <c r="E154" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20857642</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
@@ -3067,10 +2448,6 @@
       <c r="D155" s="1">
         <v>-30.7649955749511</v>
       </c>
-      <c r="E155" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23114673</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
@@ -3085,10 +2462,6 @@
       <c r="D156" s="1">
         <v>-30.7032928466796</v>
       </c>
-      <c r="E156" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20721454</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
@@ -3103,10 +2476,6 @@
       <c r="D157" s="1">
         <v>-30.585823059082</v>
       </c>
-      <c r="E157" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16417032</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
@@ -3121,10 +2490,6 @@
       <c r="D158" s="1">
         <v>-30.6494045257568</v>
       </c>
-      <c r="E158" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1902416</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
@@ -3139,10 +2504,6 @@
       <c r="D159" s="1">
         <v>-30.5848159790039</v>
       </c>
-      <c r="E159" s="2">
-        <f t="shared" si="1"/>
-        <v>71.06528698</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
@@ -3157,10 +2518,6 @@
       <c r="D160" s="1">
         <v>-30.5202312469482</v>
       </c>
-      <c r="E160" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07761584</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
@@ -3175,10 +2532,6 @@
       <c r="D161" s="1">
         <v>-30.6561775207519</v>
       </c>
-      <c r="E161" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1716515</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
@@ -3193,10 +2546,6 @@
       <c r="D162" s="1">
         <v>-30.7377643585205</v>
       </c>
-      <c r="E162" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20724595</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
@@ -3211,10 +2560,6 @@
       <c r="D163" s="1">
         <v>-30.7527542114257</v>
       </c>
-      <c r="E163" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20667591</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
@@ -3229,10 +2574,6 @@
       <c r="D164" s="1">
         <v>-30.7270011901855</v>
       </c>
-      <c r="E164" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18955286</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
@@ -3247,10 +2588,6 @@
       <c r="D165" s="1">
         <v>-30.6567802429199</v>
       </c>
-      <c r="E165" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17730578</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
@@ -3265,10 +2602,6 @@
       <c r="D166" s="1">
         <v>-30.6001758575439</v>
       </c>
-      <c r="E166" s="2">
-        <f t="shared" si="1"/>
-        <v>71.24428372</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
@@ -3283,10 +2616,6 @@
       <c r="D167" s="1">
         <v>-30.7508754730224</v>
       </c>
-      <c r="E167" s="2">
-        <f t="shared" si="1"/>
-        <v>71.25885514</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
@@ -3301,10 +2630,6 @@
       <c r="D168" s="1">
         <v>-30.6145610809326</v>
       </c>
-      <c r="E168" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12512845</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
@@ -3319,10 +2644,6 @@
       <c r="D169" s="1">
         <v>-30.6851844787597</v>
       </c>
-      <c r="E169" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23050109</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
@@ -3337,10 +2658,6 @@
       <c r="D170" s="1">
         <v>-30.6929969787597</v>
       </c>
-      <c r="E170" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20554132</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
@@ -3355,10 +2672,6 @@
       <c r="D171" s="1">
         <v>-30.6110744476318</v>
       </c>
-      <c r="E171" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12114509</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
@@ -3373,10 +2686,6 @@
       <c r="D172" s="1">
         <v>-30.6014175415039</v>
       </c>
-      <c r="E172" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11382429</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
@@ -3391,10 +2700,6 @@
       <c r="D173" s="1">
         <v>-30.6915550231933</v>
       </c>
-      <c r="E173" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17084807</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
@@ -3409,10 +2714,6 @@
       <c r="D174" s="1">
         <v>-30.6773357391357</v>
       </c>
-      <c r="E174" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17632598</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
@@ -3427,10 +2728,6 @@
       <c r="D175" s="1">
         <v>-30.593635559082</v>
       </c>
-      <c r="E175" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20868043</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
@@ -3445,10 +2742,6 @@
       <c r="D176" s="1">
         <v>-30.593635559082</v>
       </c>
-      <c r="E176" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20868043</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
@@ -3463,10 +2756,6 @@
       <c r="D177" s="1">
         <v>-30.6032276153564</v>
       </c>
-      <c r="E177" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17990281</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
@@ -3481,10 +2770,6 @@
       <c r="D178" s="1">
         <v>-30.5977611541748</v>
       </c>
-      <c r="E178" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17677495</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
@@ -3499,10 +2784,6 @@
       <c r="D179" s="1">
         <v>-30.6334743499755</v>
       </c>
-      <c r="E179" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20247176</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
@@ -3517,10 +2798,6 @@
       <c r="D180" s="1">
         <v>-30.6670761108398</v>
       </c>
-      <c r="E180" s="2">
-        <f t="shared" si="1"/>
-        <v>71.22210648</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
@@ -3535,10 +2812,6 @@
       <c r="D181" s="1">
         <v>-30.6301879882812</v>
       </c>
-      <c r="E181" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20767531</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
@@ -3553,10 +2826,6 @@
       <c r="D182" s="1">
         <v>-30.5645961761474</v>
       </c>
-      <c r="E182" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17075148</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
@@ -3571,10 +2840,6 @@
       <c r="D183" s="1">
         <v>-30.654836654663</v>
       </c>
-      <c r="E183" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15491021</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
@@ -3589,10 +2854,6 @@
       <c r="D184" s="1">
         <v>-30.654836654663</v>
       </c>
-      <c r="E184" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15491021</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
@@ -3607,10 +2868,6 @@
       <c r="D185" s="1">
         <v>-30.624755859375</v>
       </c>
-      <c r="E185" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16546419</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
@@ -3625,10 +2882,6 @@
       <c r="D186" s="1">
         <v>-30.6181163787841</v>
       </c>
-      <c r="E186" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14783282</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
@@ -3643,10 +2896,6 @@
       <c r="D187" s="1">
         <v>-30.6251926422119</v>
       </c>
-      <c r="E187" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19297868</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
@@ -3661,10 +2910,6 @@
       <c r="D188" s="1">
         <v>-30.6303558349609</v>
       </c>
-      <c r="E188" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23223494</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
@@ -3679,10 +2924,6 @@
       <c r="D189" s="1">
         <v>-30.622106552124</v>
       </c>
-      <c r="E189" s="2">
-        <f t="shared" si="1"/>
-        <v>71.21289565</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
@@ -3697,10 +2938,6 @@
       <c r="D190" s="1">
         <v>-30.6058769226074</v>
       </c>
-      <c r="E190" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17487405</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
@@ -3715,10 +2952,6 @@
       <c r="D191" s="1">
         <v>-30.6023559570312</v>
       </c>
-      <c r="E191" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15763526</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
@@ -3733,10 +2966,6 @@
       <c r="D192" s="1">
         <v>-30.5700626373291</v>
       </c>
-      <c r="E192" s="2">
-        <f t="shared" si="1"/>
-        <v>70.99959805</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
@@ -3751,10 +2980,6 @@
       <c r="D193" s="1">
         <v>-30.6110076904296</v>
       </c>
-      <c r="E193" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13043597</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
@@ -3769,10 +2994,6 @@
       <c r="D194" s="1">
         <v>-30.707986831665</v>
       </c>
-      <c r="E194" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16976056</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
@@ -3787,10 +3008,6 @@
       <c r="D195" s="1">
         <v>-30.6653995513916</v>
       </c>
-      <c r="E195" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15497053</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
@@ -3805,10 +3022,6 @@
       <c r="D196" s="1">
         <v>-30.6181163787841</v>
       </c>
-      <c r="E196" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14853995</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
@@ -3823,10 +3036,6 @@
       <c r="D197" s="1">
         <v>-30.6409187316894</v>
       </c>
-      <c r="E197" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17545178</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
@@ -3841,10 +3050,6 @@
       <c r="D198" s="1">
         <v>-30.6608047485351</v>
       </c>
-      <c r="E198" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18823919</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
@@ -3859,10 +3064,6 @@
       <c r="D199" s="1">
         <v>-30.5962181091308</v>
       </c>
-      <c r="E199" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1302312</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
@@ -3877,10 +3078,6 @@
       <c r="D200" s="1">
         <v>-30.5341796875</v>
       </c>
-      <c r="E200" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16276324</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
@@ -3895,10 +3092,6 @@
       <c r="D201" s="1">
         <v>-30.6741180419921</v>
       </c>
-      <c r="E201" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19611255</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
@@ -3913,10 +3106,6 @@
       <c r="D202" s="1">
         <v>-30.6350173950195</v>
       </c>
-      <c r="E202" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18476728</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
@@ -3931,10 +3120,6 @@
       <c r="D203" s="1">
         <v>-30.6499061584472</v>
       </c>
-      <c r="E203" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15790012</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
@@ -3949,10 +3134,6 @@
       <c r="D204" s="1">
         <v>-30.6347160339355</v>
       </c>
-      <c r="E204" s="2">
-        <f t="shared" si="1"/>
-        <v>71.171803</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
@@ -3967,10 +3148,6 @@
       <c r="D205" s="1">
         <v>-30.6058769226074</v>
       </c>
-      <c r="E205" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19493687</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
@@ -3985,10 +3162,6 @@
       <c r="D206" s="1">
         <v>-30.598834991455</v>
       </c>
-      <c r="E206" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1982232</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
@@ -4003,10 +3176,6 @@
       <c r="D207" s="1">
         <v>-30.5854873657226</v>
       </c>
-      <c r="E207" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19805739</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
@@ -4021,10 +3190,6 @@
       <c r="D208" s="1">
         <v>-30.6041660308837</v>
       </c>
-      <c r="E208" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15700338</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
@@ -4039,10 +3204,6 @@
       <c r="D209" s="1">
         <v>-30.5718727111816</v>
       </c>
-      <c r="E209" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16240429</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
@@ -4057,10 +3218,6 @@
       <c r="D210" s="1">
         <v>-30.5297203063964</v>
       </c>
-      <c r="E210" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12055758</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
@@ -4075,10 +3232,6 @@
       <c r="D211" s="1">
         <v>-30.5788822174072</v>
       </c>
-      <c r="E211" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08531802</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
@@ -4093,10 +3246,6 @@
       <c r="D212" s="1">
         <v>-30.6058769226074</v>
       </c>
-      <c r="E212" s="2">
-        <f t="shared" si="1"/>
-        <v>71.07383274</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
@@ -4111,10 +3260,6 @@
       <c r="D213" s="1">
         <v>-30.6221733093261</v>
       </c>
-      <c r="E213" s="2">
-        <f t="shared" si="1"/>
-        <v>71.093102</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
@@ -4129,10 +3274,6 @@
       <c r="D214" s="1">
         <v>-30.6505088806152</v>
       </c>
-      <c r="E214" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15300576</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
@@ -4147,10 +3288,6 @@
       <c r="D215" s="1">
         <v>-30.6521873474121</v>
       </c>
-      <c r="E215" s="2">
-        <f t="shared" si="1"/>
-        <v>71.21650288</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
@@ -4165,10 +3302,6 @@
       <c r="D216" s="1">
         <v>-30.5946426391601</v>
       </c>
-      <c r="E216" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16777303</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
@@ -4183,10 +3316,6 @@
       <c r="D217" s="1">
         <v>-30.6054077148437</v>
       </c>
-      <c r="E217" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12796436</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
@@ -4201,10 +3330,6 @@
       <c r="D218" s="1">
         <v>-30.6367607116699</v>
       </c>
-      <c r="E218" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14285182</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
@@ -4219,10 +3344,6 @@
       <c r="D219" s="1">
         <v>-30.6866931915283</v>
       </c>
-      <c r="E219" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17330931</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
@@ -4237,10 +3358,6 @@
       <c r="D220" s="1">
         <v>-30.6450443267822</v>
       </c>
-      <c r="E220" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18872468</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
@@ -4255,10 +3372,6 @@
       <c r="D221" s="1">
         <v>-30.6469554901123</v>
       </c>
-      <c r="E221" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20376777</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
@@ -4273,10 +3386,6 @@
       <c r="D222" s="1">
         <v>-30.7135200500488</v>
       </c>
-      <c r="E222" s="2">
-        <f t="shared" si="1"/>
-        <v>71.21202719</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
@@ -4291,10 +3400,6 @@
       <c r="D223" s="1">
         <v>-30.7527542114257</v>
       </c>
-      <c r="E223" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20394097</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
@@ -4309,10 +3414,6 @@
       <c r="D224" s="1">
         <v>-30.7354507446289</v>
       </c>
-      <c r="E224" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20276881</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
@@ -4327,10 +3428,6 @@
       <c r="D225" s="1">
         <v>-30.6062793731689</v>
       </c>
-      <c r="E225" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19421641</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
@@ -4345,10 +3442,6 @@
       <c r="D226" s="1">
         <v>-30.6917247772216</v>
       </c>
-      <c r="E226" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17997813</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
@@ -4363,10 +3456,6 @@
       <c r="D227" s="1">
         <v>-30.6760292053222</v>
       </c>
-      <c r="E227" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23094074</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
@@ -4381,10 +3470,6 @@
       <c r="D228" s="1">
         <v>-30.5270385742187</v>
       </c>
-      <c r="E228" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10720571</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
@@ -4399,10 +3484,6 @@
       <c r="D229" s="1">
         <v>-30.6169757843017</v>
       </c>
-      <c r="E229" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13451756</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
@@ -4417,10 +3498,6 @@
       <c r="D230" s="1">
         <v>-30.7096309661865</v>
       </c>
-      <c r="E230" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20050214</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
@@ -4435,10 +3512,6 @@
       <c r="D231" s="1">
         <v>-30.6327037811279</v>
       </c>
-      <c r="E231" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15691553</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
@@ -4453,10 +3526,6 @@
       <c r="D232" s="1">
         <v>-30.6925296783447</v>
       </c>
-      <c r="E232" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1844861</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
@@ -4471,10 +3540,6 @@
       <c r="D233" s="1">
         <v>-30.6323680877685</v>
       </c>
-      <c r="E233" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1707119</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
@@ -4489,10 +3554,6 @@
       <c r="D234" s="1">
         <v>-30.6861896514892</v>
       </c>
-      <c r="E234" s="2">
-        <f t="shared" si="1"/>
-        <v>71.23575701</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
@@ -4507,10 +3568,6 @@
       <c r="D235" s="1">
         <v>-30.5752601623535</v>
       </c>
-      <c r="E235" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10175717</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
@@ -4525,10 +3582,6 @@
       <c r="D236" s="1">
         <v>-30.6350517272949</v>
       </c>
-      <c r="E236" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14643716</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
@@ -4543,10 +3596,6 @@
       <c r="D237" s="1">
         <v>-30.5849514007568</v>
       </c>
-      <c r="E237" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15951394</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
@@ -4561,10 +3610,6 @@
       <c r="D238" s="1">
         <v>-30.5764007568359</v>
       </c>
-      <c r="E238" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15470407</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
@@ -4579,10 +3624,6 @@
       <c r="D239" s="1">
         <v>-30.6291828155517</v>
       </c>
-      <c r="E239" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16316047</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
@@ -4597,10 +3638,6 @@
       <c r="D240" s="1">
         <v>-30.5793857574462</v>
       </c>
-      <c r="E240" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14817993</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
@@ -4615,10 +3652,6 @@
       <c r="D241" s="1">
         <v>-30.7626476287841</v>
       </c>
-      <c r="E241" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15254215</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
@@ -4633,10 +3666,6 @@
       <c r="D242" s="1">
         <v>-31.2039890289306</v>
       </c>
-      <c r="E242" s="2">
-        <f t="shared" si="1"/>
-        <v>70.29131631</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
@@ -4651,10 +3680,6 @@
       <c r="D243" s="1">
         <v>-31.2807483673095</v>
       </c>
-      <c r="E243" s="2">
-        <f t="shared" si="1"/>
-        <v>70.29145894</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
@@ -4669,10 +3694,6 @@
       <c r="D244" s="1">
         <v>-31.2740077972412</v>
       </c>
-      <c r="E244" s="2">
-        <f t="shared" si="1"/>
-        <v>70.3470915</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
@@ -4687,10 +3708,6 @@
       <c r="D245" s="1">
         <v>-31.2668304443359</v>
       </c>
-      <c r="E245" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36577766</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
@@ -4705,10 +3722,6 @@
       <c r="D246" s="1">
         <v>-31.3067359924316</v>
       </c>
-      <c r="E246" s="2">
-        <f t="shared" si="1"/>
-        <v>70.3883515</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
@@ -4723,10 +3736,6 @@
       <c r="D247" s="1">
         <v>-31.3398342132568</v>
       </c>
-      <c r="E247" s="2">
-        <f t="shared" si="1"/>
-        <v>70.38512382</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
@@ -4741,10 +3750,6 @@
       <c r="D248" s="1">
         <v>-31.3295383453369</v>
       </c>
-      <c r="E248" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33493282</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
@@ -4759,10 +3764,6 @@
       <c r="D249" s="1">
         <v>-31.3616981506347</v>
       </c>
-      <c r="E249" s="2">
-        <f t="shared" si="1"/>
-        <v>70.35006156</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
@@ -4777,10 +3778,6 @@
       <c r="D250" s="1">
         <v>-31.2325267791748</v>
       </c>
-      <c r="E250" s="2">
-        <f t="shared" si="1"/>
-        <v>70.32996244</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
@@ -4795,10 +3792,6 @@
       <c r="D251" s="1">
         <v>-31.3463058471679</v>
       </c>
-      <c r="E251" s="2">
-        <f t="shared" si="1"/>
-        <v>70.32826664</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
@@ -4813,10 +3806,6 @@
       <c r="D252" s="1">
         <v>-31.4011001586914</v>
       </c>
-      <c r="E252" s="2">
-        <f t="shared" si="1"/>
-        <v>70.29593308</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
@@ -4831,10 +3820,6 @@
       <c r="D253" s="1">
         <v>-31.360424041748</v>
       </c>
-      <c r="E253" s="2">
-        <f t="shared" si="1"/>
-        <v>70.28682524</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
@@ -4849,10 +3834,6 @@
       <c r="D254" s="1">
         <v>-31.3280296325683</v>
       </c>
-      <c r="E254" s="2">
-        <f t="shared" si="1"/>
-        <v>70.28810067</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
@@ -4867,10 +3848,6 @@
       <c r="D255" s="1">
         <v>-31.304723739624</v>
       </c>
-      <c r="E255" s="2">
-        <f t="shared" si="1"/>
-        <v>70.3180085</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
@@ -4885,10 +3862,6 @@
       <c r="D256" s="1">
         <v>-31.3178024291992</v>
       </c>
-      <c r="E256" s="2">
-        <f t="shared" si="1"/>
-        <v>70.38132959</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
@@ -4903,10 +3876,6 @@
       <c r="D257" s="1">
         <v>-31.4626693725585</v>
       </c>
-      <c r="E257" s="2">
-        <f t="shared" si="1"/>
-        <v>70.42279893</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
@@ -4921,10 +3890,6 @@
       <c r="D258" s="1">
         <v>-31.4607906341552</v>
       </c>
-      <c r="E258" s="2">
-        <f t="shared" si="1"/>
-        <v>70.4224672</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
@@ -4939,10 +3904,6 @@
       <c r="D259" s="1">
         <v>-31.3746757507324</v>
       </c>
-      <c r="E259" s="2">
-        <f t="shared" si="1"/>
-        <v>70.40734218</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
@@ -4957,10 +3918,6 @@
       <c r="D260" s="1">
         <v>-31.3076095581054</v>
       </c>
-      <c r="E260" s="2">
-        <f t="shared" si="1"/>
-        <v>70.37356301</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
@@ -4975,10 +3932,6 @@
       <c r="D261" s="1">
         <v>-31.291311264038</v>
       </c>
-      <c r="E261" s="2">
-        <f t="shared" si="1"/>
-        <v>70.32219255</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
@@ -4993,10 +3946,6 @@
       <c r="D262" s="1">
         <v>-31.3241748809814</v>
       </c>
-      <c r="E262" s="2">
-        <f t="shared" si="1"/>
-        <v>70.32750982</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
@@ -5011,10 +3960,6 @@
       <c r="D263" s="1">
         <v>-31.3881912231445</v>
       </c>
-      <c r="E263" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36731912</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
@@ -5029,10 +3974,6 @@
       <c r="D264" s="1">
         <v>-31.438190460205</v>
       </c>
-      <c r="E264" s="2">
-        <f t="shared" si="1"/>
-        <v>70.39013933</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
@@ -5047,10 +3988,6 @@
       <c r="D265" s="1">
         <v>-31.4317512512207</v>
       </c>
-      <c r="E265" s="2">
-        <f t="shared" si="1"/>
-        <v>70.38049766</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
@@ -5065,10 +4002,6 @@
       <c r="D266" s="1">
         <v>-31.3934211730957</v>
       </c>
-      <c r="E266" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33820015</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
@@ -5083,10 +4016,6 @@
       <c r="D267" s="1">
         <v>-31.2642478942871</v>
       </c>
-      <c r="E267" s="2">
-        <f t="shared" si="1"/>
-        <v>70.38551673</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
@@ -5101,10 +4030,6 @@
       <c r="D268" s="1">
         <v>-31.3641471862792</v>
       </c>
-      <c r="E268" s="2">
-        <f t="shared" si="1"/>
-        <v>70.42547469</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
@@ -5119,10 +4044,6 @@
       <c r="D269" s="1">
         <v>-31.3043880462646</v>
       </c>
-      <c r="E269" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36792912</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
@@ -5137,10 +4058,6 @@
       <c r="D270" s="1">
         <v>-31.2247791290283</v>
       </c>
-      <c r="E270" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36830572</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
@@ -5155,10 +4072,6 @@
       <c r="D271" s="1">
         <v>-31.2321243286132</v>
       </c>
-      <c r="E271" s="2">
-        <f t="shared" si="1"/>
-        <v>70.39304002</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
@@ -5173,10 +4086,6 @@
       <c r="D272" s="1">
         <v>-31.2953014373779</v>
       </c>
-      <c r="E272" s="2">
-        <f t="shared" si="1"/>
-        <v>70.35734721</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
@@ -5191,10 +4100,6 @@
       <c r="D273" s="1">
         <v>-31.3280296325683</v>
       </c>
-      <c r="E273" s="2">
-        <f t="shared" si="1"/>
-        <v>70.27890623</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
@@ -5209,10 +4114,6 @@
       <c r="D274" s="1">
         <v>-31.3180694580078</v>
       </c>
-      <c r="E274" s="2">
-        <f t="shared" si="1"/>
-        <v>70.27943713</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
@@ -5227,10 +4128,6 @@
       <c r="D275" s="1">
         <v>-31.22119140625</v>
       </c>
-      <c r="E275" s="2">
-        <f t="shared" si="1"/>
-        <v>70.28472792</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
@@ -5245,10 +4142,6 @@
       <c r="D276" s="1">
         <v>-31.2282676696777</v>
       </c>
-      <c r="E276" s="2">
-        <f t="shared" si="1"/>
-        <v>70.30649969</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
@@ -5263,10 +4156,6 @@
       <c r="D277" s="1">
         <v>-31.2390308380126</v>
       </c>
-      <c r="E277" s="2">
-        <f t="shared" si="1"/>
-        <v>70.37697977</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
@@ -5281,10 +4170,6 @@
       <c r="D278" s="1">
         <v>-31.3019084930419</v>
       </c>
-      <c r="E278" s="2">
-        <f t="shared" si="1"/>
-        <v>70.42529435</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
@@ -5299,10 +4184,6 @@
       <c r="D279" s="1">
         <v>-31.376085281372</v>
       </c>
-      <c r="E279" s="2">
-        <f t="shared" si="1"/>
-        <v>70.41861965</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
@@ -5317,10 +4198,6 @@
       <c r="D280" s="1">
         <v>-31.4137096405029</v>
       </c>
-      <c r="E280" s="2">
-        <f t="shared" si="1"/>
-        <v>70.39571359</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
@@ -5335,10 +4212,6 @@
       <c r="D281" s="1">
         <v>-31.40767288208</v>
       </c>
-      <c r="E281" s="2">
-        <f t="shared" si="1"/>
-        <v>70.39855062</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
@@ -5353,10 +4226,6 @@
       <c r="D282" s="1">
         <v>-31.3892307281494</v>
       </c>
-      <c r="E282" s="2">
-        <f t="shared" si="1"/>
-        <v>70.40725367</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
@@ -5371,10 +4240,6 @@
       <c r="D283" s="1">
         <v>-31.3892974853515</v>
       </c>
-      <c r="E283" s="2">
-        <f t="shared" si="1"/>
-        <v>70.40735564</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
@@ -5389,10 +4254,6 @@
       <c r="D284" s="1">
         <v>-31.4000625610351</v>
       </c>
-      <c r="E284" s="2">
-        <f t="shared" si="1"/>
-        <v>70.42383788</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
@@ -5407,10 +4268,6 @@
       <c r="D285" s="1">
         <v>-31.4482498168945</v>
       </c>
-      <c r="E285" s="2">
-        <f t="shared" si="1"/>
-        <v>70.35809418</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
@@ -5425,10 +4282,6 @@
       <c r="D286" s="1">
         <v>-31.4784317016601</v>
       </c>
-      <c r="E286" s="2">
-        <f t="shared" si="1"/>
-        <v>70.38507522</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
@@ -5443,10 +4296,6 @@
       <c r="D287" s="1">
         <v>-31.3974800109863</v>
       </c>
-      <c r="E287" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33017838</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
@@ -5461,10 +4310,6 @@
       <c r="D288" s="1">
         <v>-31.2960720062255</v>
       </c>
-      <c r="E288" s="2">
-        <f t="shared" si="1"/>
-        <v>70.26652215</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
@@ -5479,10 +4324,6 @@
       <c r="D289" s="1">
         <v>-31.2944622039794</v>
       </c>
-      <c r="E289" s="2">
-        <f t="shared" si="1"/>
-        <v>70.32201593</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
@@ -5497,10 +4338,6 @@
       <c r="D290" s="1">
         <v>-31.3548564910888</v>
       </c>
-      <c r="E290" s="2">
-        <f t="shared" si="1"/>
-        <v>70.41099</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
@@ -5515,10 +4352,6 @@
       <c r="D291" s="1">
         <v>-31.3045558929443</v>
       </c>
-      <c r="E291" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33907296</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
@@ -5533,10 +4366,6 @@
       <c r="D292" s="1">
         <v>-31.3260841369628</v>
       </c>
-      <c r="E292" s="2">
-        <f t="shared" si="1"/>
-        <v>70.2555127</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
@@ -5551,10 +4380,6 @@
       <c r="D293" s="1">
         <v>-31.3378219604492</v>
       </c>
-      <c r="E293" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36126505</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
@@ -5569,10 +4394,6 @@
       <c r="D294" s="1">
         <v>-31.4400691986084</v>
       </c>
-      <c r="E294" s="2">
-        <f t="shared" si="1"/>
-        <v>70.36184461</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
@@ -5587,10 +4408,6 @@
       <c r="D295" s="1">
         <v>-31.4871501922607</v>
       </c>
-      <c r="E295" s="2">
-        <f t="shared" si="1"/>
-        <v>70.34889441</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
@@ -5605,10 +4422,6 @@
       <c r="D296" s="1">
         <v>-31.3905715942382</v>
       </c>
-      <c r="E296" s="2">
-        <f t="shared" si="1"/>
-        <v>70.29422423</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
@@ -5623,10 +4436,6 @@
       <c r="D297" s="1">
         <v>-31.3173999786376</v>
       </c>
-      <c r="E297" s="2">
-        <f t="shared" si="1"/>
-        <v>70.26058506</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
@@ -5641,10 +4450,6 @@
       <c r="D298" s="1">
         <v>-31.481481552124</v>
       </c>
-      <c r="E298" s="2">
-        <f t="shared" si="1"/>
-        <v>70.35474933</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
@@ -5659,10 +4464,6 @@
       <c r="D299" s="1">
         <v>-31.6858711242675</v>
       </c>
-      <c r="E299" s="2">
-        <f t="shared" si="1"/>
-        <v>70.40698428</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
@@ -5677,10 +4478,6 @@
       <c r="D300" s="1">
         <v>-31.4382896423339</v>
       </c>
-      <c r="E300" s="2">
-        <f t="shared" si="1"/>
-        <v>70.24277929</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
@@ -5695,10 +4492,6 @@
       <c r="D301" s="1">
         <v>-31.4873180389404</v>
       </c>
-      <c r="E301" s="2">
-        <f t="shared" si="1"/>
-        <v>70.26761649</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
@@ -5713,10 +4506,6 @@
       <c r="D302" s="1">
         <v>-31.560655593872</v>
       </c>
-      <c r="E302" s="2">
-        <f t="shared" si="1"/>
-        <v>70.35956385</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
@@ -5731,10 +4520,6 @@
       <c r="D303" s="1">
         <v>-31.4176998138427</v>
       </c>
-      <c r="E303" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33502677</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
@@ -5749,10 +4534,6 @@
       <c r="D304" s="1">
         <v>-31.3035507202148</v>
       </c>
-      <c r="E304" s="2">
-        <f t="shared" si="1"/>
-        <v>70.29530159</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
@@ -5767,10 +4548,6 @@
       <c r="D305" s="1">
         <v>-31.3727645874023</v>
       </c>
-      <c r="E305" s="2">
-        <f t="shared" si="1"/>
-        <v>70.33711452</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
@@ -5785,10 +4562,6 @@
       <c r="D306" s="1">
         <v>-31.4794368743896</v>
       </c>
-      <c r="E306" s="2">
-        <f t="shared" si="1"/>
-        <v>70.42506712</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
@@ -5803,10 +4576,6 @@
       <c r="D307" s="1">
         <v>-31.4137096405029</v>
       </c>
-      <c r="E307" s="2">
-        <f t="shared" si="1"/>
-        <v>70.46517724</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
@@ -5821,10 +4590,6 @@
       <c r="D308" s="1">
         <v>-31.4137096405029</v>
       </c>
-      <c r="E308" s="2">
-        <f t="shared" si="1"/>
-        <v>70.48668155</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
@@ -5839,10 +4604,6 @@
       <c r="D309" s="1">
         <v>-31.2537536621093</v>
       </c>
-      <c r="E309" s="2">
-        <f t="shared" si="1"/>
-        <v>70.49738721</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
@@ -5857,10 +4618,6 @@
       <c r="D310" s="1">
         <v>-31.193359375</v>
       </c>
-      <c r="E310" s="2">
-        <f t="shared" si="1"/>
-        <v>70.51030173</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
@@ -5875,10 +4632,6 @@
       <c r="D311" s="1">
         <v>-31.188865661621</v>
       </c>
-      <c r="E311" s="2">
-        <f t="shared" si="1"/>
-        <v>70.58549901</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
@@ -5893,10 +4646,6 @@
       <c r="D312" s="1">
         <v>-31.0624084472656</v>
       </c>
-      <c r="E312" s="2">
-        <f t="shared" si="1"/>
-        <v>70.59911133</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
@@ -5911,10 +4660,6 @@
       <c r="D313" s="1">
         <v>-31.0030193328857</v>
       </c>
-      <c r="E313" s="2">
-        <f t="shared" si="1"/>
-        <v>70.62238195</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
@@ -5929,10 +4674,6 @@
       <c r="D314" s="1">
         <v>-31.0649890899658</v>
       </c>
-      <c r="E314" s="2">
-        <f t="shared" si="1"/>
-        <v>70.72410159</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
@@ -5947,10 +4688,6 @@
       <c r="D315" s="1">
         <v>-30.9540252685546</v>
       </c>
-      <c r="E315" s="2">
-        <f t="shared" si="1"/>
-        <v>70.79322253</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
@@ -5965,10 +4702,6 @@
       <c r="D316" s="1">
         <v>-30.9836368560791</v>
       </c>
-      <c r="E316" s="2">
-        <f t="shared" si="1"/>
-        <v>70.83505791</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
@@ -5983,10 +4716,6 @@
       <c r="D317" s="1">
         <v>-30.9298152923584</v>
       </c>
-      <c r="E317" s="2">
-        <f t="shared" si="1"/>
-        <v>70.88333171</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
@@ -6001,10 +4730,6 @@
       <c r="D318" s="1">
         <v>-30.837495803833</v>
       </c>
-      <c r="E318" s="2">
-        <f t="shared" si="1"/>
-        <v>70.9045179</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
@@ -6019,10 +4744,6 @@
       <c r="D319" s="1">
         <v>-30.7569141387939</v>
       </c>
-      <c r="E319" s="2">
-        <f t="shared" si="1"/>
-        <v>70.95184266</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
@@ -6037,10 +4758,6 @@
       <c r="D320" s="1">
         <v>-30.6748886108398</v>
       </c>
-      <c r="E320" s="2">
-        <f t="shared" si="1"/>
-        <v>70.99656013</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
@@ -6055,10 +4772,6 @@
       <c r="D321" s="1">
         <v>-30.5939712524414</v>
       </c>
-      <c r="E321" s="2">
-        <f t="shared" si="1"/>
-        <v>70.98404409</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
@@ -6073,10 +4786,6 @@
       <c r="D322" s="1">
         <v>-30.5632896423339</v>
       </c>
-      <c r="E322" s="2">
-        <f t="shared" si="1"/>
-        <v>70.99118888</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
@@ -6091,10 +4800,6 @@
       <c r="D323" s="1">
         <v>-30.6126174926757</v>
       </c>
-      <c r="E323" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11051618</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
@@ -6109,10 +4814,6 @@
       <c r="D324" s="1">
         <v>-30.6410522460937</v>
       </c>
-      <c r="E324" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12862846</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
@@ -6127,10 +4828,6 @@
       <c r="D325" s="1">
         <v>-30.6195240020751</v>
       </c>
-      <c r="E325" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11375227</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
@@ -6145,10 +4842,6 @@
       <c r="D326" s="1">
         <v>-30.7086582183837</v>
       </c>
-      <c r="E326" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15089083</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
@@ -6163,10 +4856,6 @@
       <c r="D327" s="1">
         <v>-30.6080894470214</v>
       </c>
-      <c r="E327" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14151989</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
@@ -6181,10 +4870,6 @@
       <c r="D328" s="1">
         <v>-30.5569171905517</v>
       </c>
-      <c r="E328" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1340814</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
@@ -6199,10 +4884,6 @@
       <c r="D329" s="1">
         <v>-30.6245212554931</v>
       </c>
-      <c r="E329" s="2">
-        <f t="shared" si="1"/>
-        <v>71.173582</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
@@ -6217,10 +4898,6 @@
       <c r="D330" s="1">
         <v>-30.6746883392334</v>
       </c>
-      <c r="E330" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20035143</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
@@ -6235,10 +4912,6 @@
       <c r="D331" s="1">
         <v>-30.647626876831</v>
       </c>
-      <c r="E331" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16426711</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
@@ -6253,10 +4926,6 @@
       <c r="D332" s="1">
         <v>-30.7394752502441</v>
       </c>
-      <c r="E332" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17066644</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
@@ -6271,10 +4940,6 @@
       <c r="D333" s="1">
         <v>-30.6210670471191</v>
       </c>
-      <c r="E333" s="2">
-        <f t="shared" si="1"/>
-        <v>71.16245002</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
@@ -6289,10 +4954,6 @@
       <c r="D334" s="1">
         <v>-30.7335720062255</v>
       </c>
-      <c r="E334" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17024812</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
@@ -6307,10 +4968,6 @@
       <c r="D335" s="1">
         <v>-30.6805896759033</v>
       </c>
-      <c r="E335" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1705982</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
@@ -6325,10 +4982,6 @@
       <c r="D336" s="1">
         <v>-30.7001075744628</v>
       </c>
-      <c r="E336" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1451228</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
@@ -6343,10 +4996,6 @@
       <c r="D337" s="1">
         <v>-30.7100658416748</v>
       </c>
-      <c r="E337" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15848747</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
@@ -6361,10 +5010,6 @@
       <c r="D338" s="1">
         <v>-30.6915550231933</v>
       </c>
-      <c r="E338" s="2">
-        <f t="shared" si="1"/>
-        <v>71.18796049</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
@@ -6379,10 +5024,6 @@
       <c r="D339" s="1">
         <v>-30.7133865356445</v>
       </c>
-      <c r="E339" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19301429</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
@@ -6397,10 +5038,6 @@
       <c r="D340" s="1">
         <v>-30.7805213928222</v>
       </c>
-      <c r="E340" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20402137</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
@@ -6415,10 +5052,6 @@
       <c r="D341" s="1">
         <v>-30.7998695373535</v>
       </c>
-      <c r="E341" s="2">
-        <f t="shared" si="1"/>
-        <v>71.17897849</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
@@ -6433,10 +5066,6 @@
       <c r="D342" s="1">
         <v>-30.6814613342285</v>
       </c>
-      <c r="E342" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15134258</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
@@ -6451,10 +5080,6 @@
       <c r="D343" s="1">
         <v>-30.6576194763183</v>
       </c>
-      <c r="E343" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14248492</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
@@ -6469,10 +5094,6 @@
       <c r="D344" s="1">
         <v>-30.7266654968261</v>
       </c>
-      <c r="E344" s="2">
-        <f t="shared" si="1"/>
-        <v>71.24556519</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
@@ -6487,10 +5108,6 @@
       <c r="D345" s="1">
         <v>-30.7780055999755</v>
       </c>
-      <c r="E345" s="2">
-        <f t="shared" si="1"/>
-        <v>71.25307926</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
@@ -6505,10 +5122,6 @@
       <c r="D346" s="1">
         <v>-30.7190532684326</v>
       </c>
-      <c r="E346" s="2">
-        <f t="shared" si="1"/>
-        <v>71.15169459</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
@@ -6523,10 +5136,6 @@
       <c r="D347" s="1">
         <v>-30.6536617279052</v>
       </c>
-      <c r="E347" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10345222</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
@@ -6541,10 +5150,6 @@
       <c r="D348" s="1">
         <v>-30.7301197052001</v>
       </c>
-      <c r="E348" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1825822</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
@@ -6559,10 +5164,6 @@
       <c r="D349" s="1">
         <v>-30.6793155670166</v>
       </c>
-      <c r="E349" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14177278</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
@@ -6577,10 +5178,6 @@
       <c r="D350" s="1">
         <v>-30.6793155670166</v>
       </c>
-      <c r="E350" s="2">
-        <f t="shared" si="1"/>
-        <v>71.14177278</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
@@ -6595,10 +5192,6 @@
       <c r="D351" s="1">
         <v>-30.64963722229</v>
       </c>
-      <c r="E351" s="2">
-        <f t="shared" si="1"/>
-        <v>71.20896899</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
@@ -6613,10 +5206,6 @@
       <c r="D352" s="1">
         <v>-30.6930980682373</v>
       </c>
-      <c r="E352" s="2">
-        <f t="shared" si="1"/>
-        <v>71.13541112</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
@@ -6631,10 +5220,6 @@
       <c r="D353" s="1">
         <v>-30.6605033874511</v>
       </c>
-      <c r="E353" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09994548</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
@@ -6649,10 +5234,6 @@
       <c r="D354" s="1">
         <v>-30.6181163787841</v>
       </c>
-      <c r="E354" s="2">
-        <f t="shared" si="1"/>
-        <v>71.10391397</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
@@ -6667,10 +5248,6 @@
       <c r="D355" s="1">
         <v>-30.638069152832</v>
       </c>
-      <c r="E355" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12959409</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
@@ -6685,10 +5262,6 @@
       <c r="D356" s="1">
         <v>-30.6793155670166</v>
       </c>
-      <c r="E356" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1826845</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
@@ -6703,10 +5276,6 @@
       <c r="D357" s="1">
         <v>-30.6730785369873</v>
       </c>
-      <c r="E357" s="2">
-        <f t="shared" si="1"/>
-        <v>71.1765227</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
@@ -6721,10 +5290,6 @@
       <c r="D358" s="1">
         <v>-30.608491897583</v>
       </c>
-      <c r="E358" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11271577</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
@@ -6739,10 +5304,6 @@
       <c r="D359" s="1">
         <v>-30.5232486724853</v>
       </c>
-      <c r="E359" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08432457</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
@@ -6757,10 +5318,6 @@
       <c r="D360" s="1">
         <v>-30.6496047973632</v>
       </c>
-      <c r="E360" s="2">
-        <f t="shared" si="1"/>
-        <v>71.12383303</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
@@ -6775,10 +5332,6 @@
       <c r="D361" s="1">
         <v>-30.5931339263916</v>
       </c>
-      <c r="E361" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11910676</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
@@ -6793,10 +5346,6 @@
       <c r="D362" s="1">
         <v>-30.5556087493896</v>
       </c>
-      <c r="E362" s="2">
-        <f t="shared" si="1"/>
-        <v>71.09518496</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
@@ -6811,10 +5360,6 @@
       <c r="D363" s="1">
         <v>-30.593635559082</v>
       </c>
-      <c r="E363" s="2">
-        <f t="shared" si="1"/>
-        <v>71.08481331</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
@@ -6829,10 +5374,6 @@
       <c r="D364" s="1">
         <v>-30.6260967254638</v>
       </c>
-      <c r="E364" s="2">
-        <f t="shared" si="1"/>
-        <v>71.11142719</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
@@ -6847,10 +5388,6 @@
       <c r="D365" s="1">
         <v>-30.7282752990722</v>
       </c>
-      <c r="E365" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19524483</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
@@ -6864,10 +5401,6 @@
       </c>
       <c r="D366" s="1">
         <v>-30.7282752990722</v>
-      </c>
-      <c r="E366" s="2">
-        <f t="shared" si="1"/>
-        <v>71.19524483</v>
       </c>
     </row>
   </sheetData>
